--- a/Example/TestTable/数组类型.xlsx
+++ b/Example/TestTable/数组类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlyFly\WorkSpace\ExcelToCode\Example\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ExcelToCode\Example\TestTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4930016B-E97E-4783-8BF7-3670AC5CBBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EC9A33-32B3-49A1-B0D9-1FFE47D1400F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="3420" windowWidth="19005" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,14 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1|2|3|4|5|6|7|8|9|10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5|-4|-3|-2|-1|0|1|2|3|4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FloatList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,24 +123,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-3  |  -2 | -1  |
+    <t>#Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释可以写在任何位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组类型的分隔符为 |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持换行输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3|4|5|6|7|8|9|10|0XFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XFA12|-5|-4|-3|-2|-1|0|1|2|3|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfa38|-3  |  -2 | -1  |
 0  |  1 |  2  |3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释可以写在任何位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组类型的分隔符为 |</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持换行输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,13 +546,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -563,13 +563,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -577,60 +577,60 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -639,7 +639,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
